--- a/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma100521.xlsx
+++ b/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma100521.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristhian A. Torres\Documents\GitHub\Uniajc_Tesis_OTFV\Uniajc_Tesis_OTFV\Anteproyectos2021\Cronograma&amp;Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Anteproyectos2021\Cronograma&amp;Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8E022-5A98-4F29-B0FA-371DA5C62496}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades_Resultados" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cronograma!$B$1:$AB$70</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>OBJETIVOS</t>
   </si>
@@ -261,9 +262,6 @@
     <t>3. Creación de base de datos</t>
   </si>
   <si>
-    <t>5. Elaboración del documento, presentación y sustentación.</t>
-  </si>
-  <si>
     <t>5.1. Elaboración de la documentación y monografía</t>
   </si>
   <si>
@@ -355,9 +353,6 @@
     <t>TOTAL PRESUPUESTO DEL PROYECTO</t>
   </si>
   <si>
-    <t>PRESUPUESTO GENERAL DEL PROYECTO.</t>
-  </si>
-  <si>
     <t>RUBROS</t>
   </si>
   <si>
@@ -371,12 +366,15 @@
   </si>
   <si>
     <t>3.810.016 (Vlr Sem) x 2 semestres x 2 integrantes</t>
+  </si>
+  <si>
+    <t>5. Elaboración del documento, presentación y sustentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
@@ -1683,60 +1681,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,38 +1744,59 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1847,65 +1866,44 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2231,26 +2229,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
@@ -2295,7 +2293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -2306,7 +2304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -2330,7 +2328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -2341,7 +2339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
@@ -2365,7 +2363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8" t="s">
@@ -2376,7 +2374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -2387,7 +2385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
@@ -2411,7 +2409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8" t="s">
@@ -2422,7 +2420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
@@ -2433,7 +2431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -2451,116 +2449,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AB70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10"/>
-    <col min="2" max="2" width="67.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="10" customWidth="1"/>
-    <col min="5" max="28" width="3.7109375" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="11.44140625" style="10"/>
+    <col min="2" max="2" width="67.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="10" customWidth="1"/>
+    <col min="5" max="28" width="3.6640625" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-    </row>
-    <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-    </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-    </row>
-    <row r="5" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+    </row>
+    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+    </row>
+    <row r="5" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40" t="s">
         <v>39</v>
       </c>
@@ -2641,12 +2639,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+    <row r="7" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="78"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -2672,11 +2670,11 @@
       <c r="AA8" s="19"/>
       <c r="AB8" s="20"/>
     </row>
-    <row r="9" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+    <row r="9" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21"/>
@@ -2704,9 +2702,9 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="22"/>
     </row>
-    <row r="10" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+    <row r="10" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="16"/>
@@ -2732,9 +2730,9 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="23"/>
     </row>
-    <row r="11" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+    <row r="11" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
+      <c r="C11" s="73"/>
       <c r="E11" s="24"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -2760,11 +2758,11 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+    <row r="12" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="26"/>
@@ -2792,9 +2790,9 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="23"/>
     </row>
-    <row r="13" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
+    <row r="13" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="71"/>
+      <c r="C13" s="73"/>
       <c r="E13" s="26"/>
       <c r="F13" s="16"/>
       <c r="G13" s="33"/>
@@ -2820,9 +2818,9 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="23"/>
     </row>
-    <row r="14" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+    <row r="14" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="73"/>
       <c r="E14" s="26"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -2848,11 +2846,11 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="23"/>
     </row>
-    <row r="15" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+    <row r="15" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -2880,9 +2878,9 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+    <row r="16" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="73"/>
       <c r="E16" s="26"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2908,9 +2906,9 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="23"/>
     </row>
-    <row r="17" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="74"/>
+    <row r="17" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="74"/>
+      <c r="C17" s="81"/>
       <c r="E17" s="24"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2936,7 +2934,7 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="E18" s="26"/>
@@ -2964,11 +2962,11 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="23"/>
     </row>
-    <row r="19" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
+    <row r="19" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="78"/>
       <c r="E19" s="36"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -2994,11 +2992,11 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="23"/>
     </row>
-    <row r="20" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="68" t="s">
+    <row r="20" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="21"/>
@@ -3026,9 +3024,9 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="22"/>
     </row>
-    <row r="21" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
+    <row r="21" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="71"/>
+      <c r="C21" s="73"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -3054,9 +3052,9 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="23"/>
     </row>
-    <row r="22" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
+    <row r="22" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="E22" s="24"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -3082,11 +3080,11 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68" t="s">
+    <row r="23" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="21"/>
@@ -3114,9 +3112,9 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="22"/>
     </row>
-    <row r="24" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
+    <row r="24" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="71"/>
+      <c r="C24" s="73"/>
       <c r="E24" s="26"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3142,9 +3140,9 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="23"/>
     </row>
-    <row r="25" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
+    <row r="25" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="71"/>
+      <c r="C25" s="73"/>
       <c r="E25" s="24"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -3170,11 +3168,11 @@
       <c r="AA25" s="18"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
+    <row r="26" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="21"/>
@@ -3202,9 +3200,9 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="22"/>
     </row>
-    <row r="27" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
+    <row r="27" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
+      <c r="C27" s="73"/>
       <c r="E27" s="26"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3230,9 +3228,9 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="23"/>
     </row>
-    <row r="28" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="74"/>
+    <row r="28" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="74"/>
+      <c r="C28" s="81"/>
       <c r="E28" s="24"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3258,7 +3256,7 @@
       <c r="AA28" s="18"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="E29" s="26"/>
@@ -3286,11 +3284,11 @@
       <c r="AA29" s="16"/>
       <c r="AB29" s="23"/>
     </row>
-    <row r="30" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79" t="s">
+    <row r="30" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="80"/>
+      <c r="C30" s="78"/>
       <c r="E30" s="26"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -3316,11 +3314,11 @@
       <c r="AA30" s="16"/>
       <c r="AB30" s="23"/>
     </row>
-    <row r="31" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="68" t="s">
+    <row r="31" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21"/>
@@ -3348,9 +3346,9 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="22"/>
     </row>
-    <row r="32" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
+    <row r="32" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="71"/>
+      <c r="C32" s="73"/>
       <c r="E32" s="26"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -3376,9 +3374,9 @@
       <c r="AA32" s="16"/>
       <c r="AB32" s="23"/>
     </row>
-    <row r="33" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
+    <row r="33" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="71"/>
+      <c r="C33" s="73"/>
       <c r="E33" s="24"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -3404,11 +3402,11 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="68" t="s">
+    <row r="34" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="26"/>
@@ -3436,9 +3434,9 @@
       <c r="AA34" s="16"/>
       <c r="AB34" s="23"/>
     </row>
-    <row r="35" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
+    <row r="35" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="71"/>
+      <c r="C35" s="73"/>
       <c r="E35" s="26"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3464,9 +3462,9 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="23"/>
     </row>
-    <row r="36" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
+    <row r="36" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="71"/>
+      <c r="C36" s="73"/>
       <c r="E36" s="26"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3492,11 +3490,11 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="23"/>
     </row>
-    <row r="37" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="68" t="s">
+    <row r="37" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="21"/>
@@ -3524,9 +3522,9 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="22"/>
     </row>
-    <row r="38" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
+    <row r="38" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="71"/>
+      <c r="C38" s="73"/>
       <c r="E38" s="26"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3552,9 +3550,9 @@
       <c r="AA38" s="16"/>
       <c r="AB38" s="23"/>
     </row>
-    <row r="39" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
+    <row r="39" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="82"/>
+      <c r="C39" s="79"/>
       <c r="E39" s="24"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -3580,11 +3578,11 @@
       <c r="AA39" s="18"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="83" t="s">
+    <row r="40" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="21"/>
@@ -3612,9 +3610,9 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="22"/>
     </row>
-    <row r="41" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
+    <row r="41" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="71"/>
+      <c r="C41" s="73"/>
       <c r="E41" s="26"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -3640,9 +3638,9 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="23"/>
     </row>
-    <row r="42" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
-      <c r="C42" s="74"/>
+    <row r="42" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="74"/>
+      <c r="C42" s="81"/>
       <c r="E42" s="24"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -3668,7 +3666,7 @@
       <c r="AA42" s="18"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="E43" s="26"/>
@@ -3696,11 +3694,11 @@
       <c r="AA43" s="16"/>
       <c r="AB43" s="23"/>
     </row>
-    <row r="44" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="80"/>
+    <row r="44" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="78"/>
       <c r="E44" s="26"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -3726,11 +3724,11 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="23"/>
     </row>
-    <row r="45" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="68" t="s">
+    <row r="45" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="21"/>
@@ -3758,9 +3756,9 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="22"/>
     </row>
-    <row r="46" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
+    <row r="46" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="E46" s="26"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -3786,9 +3784,9 @@
       <c r="AA46" s="16"/>
       <c r="AB46" s="23"/>
     </row>
-    <row r="47" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
+    <row r="47" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="71"/>
+      <c r="C47" s="73"/>
       <c r="E47" s="24"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -3814,11 +3812,11 @@
       <c r="AA47" s="18"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
+    <row r="48" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="21"/>
@@ -3846,9 +3844,9 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="22"/>
     </row>
-    <row r="49" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
+    <row r="49" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="71"/>
+      <c r="C49" s="73"/>
       <c r="E49" s="26"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -3874,9 +3872,9 @@
       <c r="AA49" s="16"/>
       <c r="AB49" s="23"/>
     </row>
-    <row r="50" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
+    <row r="50" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="71"/>
+      <c r="C50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -3902,11 +3900,11 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="68" t="s">
+    <row r="51" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="21"/>
@@ -3934,9 +3932,9 @@
       <c r="AA51" s="17"/>
       <c r="AB51" s="22"/>
     </row>
-    <row r="52" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
+    <row r="52" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="71"/>
+      <c r="C52" s="73"/>
       <c r="E52" s="26"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -3962,9 +3960,9 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="23"/>
     </row>
-    <row r="53" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
+    <row r="53" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="82"/>
+      <c r="C53" s="79"/>
       <c r="E53" s="24"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -3990,11 +3988,11 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82" t="s">
+    <row r="54" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="80" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="21"/>
@@ -4022,9 +4020,9 @@
       <c r="AA54" s="17"/>
       <c r="AB54" s="22"/>
     </row>
-    <row r="55" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
+    <row r="55" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="71"/>
+      <c r="C55" s="73"/>
       <c r="E55" s="26"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -4050,9 +4048,9 @@
       <c r="AA55" s="16"/>
       <c r="AB55" s="23"/>
     </row>
-    <row r="56" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
+    <row r="56" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="82"/>
+      <c r="C56" s="79"/>
       <c r="E56" s="24"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -4078,11 +4076,11 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="83" t="s">
+    <row r="57" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="21"/>
@@ -4110,9 +4108,9 @@
       <c r="AA57" s="17"/>
       <c r="AB57" s="22"/>
     </row>
-    <row r="58" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
+    <row r="58" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="71"/>
+      <c r="C58" s="73"/>
       <c r="E58" s="26"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -4138,9 +4136,9 @@
       <c r="AA58" s="16"/>
       <c r="AB58" s="23"/>
     </row>
-    <row r="59" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="74"/>
+    <row r="59" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="74"/>
+      <c r="C59" s="81"/>
       <c r="E59" s="24"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -4166,7 +4164,7 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="26"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -4192,11 +4190,11 @@
       <c r="AA60" s="16"/>
       <c r="AB60" s="23"/>
     </row>
-    <row r="61" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="85"/>
+    <row r="61" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="69"/>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -4222,11 +4220,11 @@
       <c r="AA61" s="38"/>
       <c r="AB61" s="39"/>
     </row>
-    <row r="62" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="73" t="s">
+    <row r="62" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="26"/>
@@ -4254,9 +4252,9 @@
       <c r="AA62" s="16"/>
       <c r="AB62" s="23"/>
     </row>
-    <row r="63" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
+    <row r="63" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="71"/>
+      <c r="C63" s="73"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -4282,9 +4280,9 @@
       <c r="AA63" s="33"/>
       <c r="AB63" s="34"/>
     </row>
-    <row r="64" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
-      <c r="C64" s="69"/>
+    <row r="64" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="71"/>
+      <c r="C64" s="73"/>
       <c r="E64" s="26"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -4310,11 +4308,11 @@
       <c r="AA64" s="16"/>
       <c r="AB64" s="23"/>
     </row>
-    <row r="65" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="69" t="s">
+    <row r="65" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E65" s="21"/>
@@ -4342,9 +4340,9 @@
       <c r="AA65" s="17"/>
       <c r="AB65" s="22"/>
     </row>
-    <row r="66" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="68"/>
-      <c r="C66" s="69"/>
+    <row r="66" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="71"/>
+      <c r="C66" s="73"/>
       <c r="E66" s="26"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -4370,9 +4368,9 @@
       <c r="AA66" s="33"/>
       <c r="AB66" s="34"/>
     </row>
-    <row r="67" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="68"/>
-      <c r="C67" s="69"/>
+    <row r="67" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="71"/>
+      <c r="C67" s="73"/>
       <c r="E67" s="24"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -4398,12 +4396,12 @@
       <c r="AA67" s="18"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="68" t="s">
+    <row r="68" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="75" t="s">
         <v>64</v>
-      </c>
-      <c r="C68" s="77" t="s">
-        <v>65</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="16"/>
@@ -4430,9 +4428,9 @@
       <c r="AA68" s="16"/>
       <c r="AB68" s="23"/>
     </row>
-    <row r="69" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="68"/>
-      <c r="C69" s="77"/>
+    <row r="69" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="71"/>
+      <c r="C69" s="75"/>
       <c r="E69" s="26"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -4458,9 +4456,9 @@
       <c r="AA69" s="16"/>
       <c r="AB69" s="23"/>
     </row>
-    <row r="70" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="72"/>
-      <c r="C70" s="78"/>
+    <row r="70" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="74"/>
+      <c r="C70" s="76"/>
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
@@ -4488,11 +4486,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:AB4"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="B8:C8"/>
@@ -4509,27 +4523,11 @@
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:AB4"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -4538,33 +4536,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="0.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="0.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="0.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="24" width="11.42578125" style="57"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="0.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="0.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0.88671875" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="24" width="11.44140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -4589,7 +4587,7 @@
       <c r="W2" s="56"/>
       <c r="X2" s="56"/>
     </row>
-    <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -4614,7 +4612,7 @@
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
     </row>
-    <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -4639,35 +4637,35 @@
       <c r="W4" s="56"/>
       <c r="X4" s="56"/>
     </row>
-    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="60">
         <v>1400000</v>
@@ -4686,13 +4684,13 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="60">
         <v>0</v>
@@ -4711,13 +4709,13 @@
         <v>2560000</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="60">
         <v>0</v>
@@ -4736,13 +4734,13 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="60">
         <v>0</v>
@@ -4761,13 +4759,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="60">
         <v>0</v>
@@ -4786,9 +4784,9 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="66"/>
@@ -4809,9 +4807,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="66"/>
@@ -4832,9 +4830,9 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="66"/>
@@ -4842,7 +4840,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
+      <c r="H15" s="60">
+        <v>700000</v>
+      </c>
       <c r="I15" s="61"/>
       <c r="J15" s="60">
         <v>0</v>
@@ -4850,12 +4850,12 @@
       <c r="K15" s="61"/>
       <c r="L15" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="66"/>
@@ -4876,7 +4876,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59"/>
       <c r="D17" s="59"/>
       <c r="F17" s="63"/>
@@ -4887,9 +4887,9 @@
       <c r="K17" s="61"/>
       <c r="L17" s="63"/>
     </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
@@ -4900,7 +4900,7 @@
       <c r="G18" s="65"/>
       <c r="H18" s="64">
         <f>SUM(H8:H16)</f>
-        <v>18560000</v>
+        <v>19260000</v>
       </c>
       <c r="I18" s="65"/>
       <c r="J18" s="64">
@@ -4910,23 +4910,23 @@
       <c r="K18" s="65"/>
       <c r="L18" s="64">
         <f>SUM(L8:L16)</f>
-        <v>20960000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>21660000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B18:D18"/>
@@ -4937,429 +4937,429 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:S21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="126"/>
-      <c r="C2" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="135"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="127"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="136"/>
-    </row>
-    <row r="4" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="128"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="92"/>
+      <c r="C2" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="93"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="94"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="43">
         <v>43753</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-    </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="138"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="140"/>
-    </row>
-    <row r="6" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141" t="s">
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106"/>
+    </row>
+    <row r="6" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="109"/>
+    </row>
+    <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
-    </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-    </row>
-    <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+      <c r="C8" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105" t="s">
+    </row>
+    <row r="9" spans="2:19" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="110"/>
+      <c r="C9" s="115" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
-      <c r="C9" s="108" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="117" t="s">
+      <c r="G9" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="H9" s="128"/>
+      <c r="I9" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120" t="s">
+      <c r="J9" s="128"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="133"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="110"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="133"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="110"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="133"/>
+    </row>
+    <row r="12" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="99"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="99"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="103"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="99"/>
-    </row>
-    <row r="12" spans="2:19" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="C12" s="134">
+        <v>1400000</v>
+      </c>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="89">
-        <v>1400000</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="89">
+      <c r="G12" s="134">
         <f>+J31</f>
         <v>0</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="89">
+      <c r="H12" s="136"/>
+      <c r="I12" s="134">
         <v>0</v>
       </c>
-      <c r="J12" s="91"/>
+      <c r="J12" s="136"/>
       <c r="K12" s="46">
         <f>SUM(C12:J12)</f>
         <v>1400000</v>
       </c>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:19" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B13" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="89">
+        <v>78</v>
+      </c>
+      <c r="C13" s="134">
         <f>+I41</f>
         <v>0</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="89">
+        <v>79</v>
+      </c>
+      <c r="G13" s="134">
         <v>2560000</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92">
+      <c r="H13" s="136"/>
+      <c r="I13" s="137">
         <v>0</v>
       </c>
-      <c r="J13" s="93"/>
+      <c r="J13" s="138"/>
       <c r="K13" s="46">
         <f>SUM(C13:J13)</f>
         <v>2560000</v>
       </c>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="2:19" ht="66" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="134">
+        <v>0</v>
+      </c>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="89">
+      <c r="G14" s="134">
+        <v>13600000</v>
+      </c>
+      <c r="H14" s="136"/>
+      <c r="I14" s="134">
         <v>0</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="89">
-        <v>13600000</v>
-      </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89">
-        <v>0</v>
-      </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="136"/>
       <c r="K14" s="46">
         <f t="shared" ref="K14:K20" si="0">SUM(C14:J14)</f>
         <v>13600000</v>
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="2:19" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B15" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="89">
+        <v>82</v>
+      </c>
+      <c r="C15" s="134">
         <f>+I50</f>
         <v>0</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
       <c r="F15" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="89">
+        <v>83</v>
+      </c>
+      <c r="G15" s="134">
         <v>0</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89">
+      <c r="H15" s="136"/>
+      <c r="I15" s="134">
         <v>0</v>
       </c>
-      <c r="J15" s="91"/>
+      <c r="J15" s="136"/>
       <c r="K15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="2:19" ht="66" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="89">
+        <v>84</v>
+      </c>
+      <c r="C16" s="134">
         <f>+I59</f>
         <v>0</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="89">
+        <v>85</v>
+      </c>
+      <c r="G16" s="134">
         <v>700000</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92">
+      <c r="H16" s="136"/>
+      <c r="I16" s="137">
         <v>0</v>
       </c>
-      <c r="J16" s="93"/>
+      <c r="J16" s="138"/>
       <c r="K16" s="46">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
       <c r="L16" s="47"/>
     </row>
-    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="89">
+        <v>86</v>
+      </c>
+      <c r="C17" s="134">
         <f>+I68</f>
         <v>0</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="50"/>
-      <c r="G17" s="89">
+      <c r="G17" s="134">
         <v>500000</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92">
+      <c r="H17" s="136"/>
+      <c r="I17" s="137">
         <v>0</v>
       </c>
-      <c r="J17" s="93"/>
+      <c r="J17" s="138"/>
       <c r="K17" s="46">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="89">
+        <v>87</v>
+      </c>
+      <c r="C18" s="134">
         <v>0</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="89">
+      <c r="G18" s="134">
         <v>400000</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92">
+      <c r="H18" s="136"/>
+      <c r="I18" s="137">
         <v>0</v>
       </c>
-      <c r="J18" s="93"/>
+      <c r="J18" s="138"/>
       <c r="K18" s="46">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
       <c r="L18" s="47"/>
     </row>
-    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="89">
+        <v>88</v>
+      </c>
+      <c r="C19" s="134">
         <v>0</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="92">
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="137">
         <v>0</v>
       </c>
-      <c r="J19" s="93"/>
+      <c r="J19" s="138"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
     </row>
-    <row r="20" spans="2:12" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B20" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="89">
+        <v>89</v>
+      </c>
+      <c r="C20" s="134">
         <v>1000000</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="136"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="89">
+      <c r="G20" s="134">
         <v>800000</v>
       </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92">
+      <c r="H20" s="136"/>
+      <c r="I20" s="137">
         <v>0</v>
       </c>
-      <c r="J20" s="93"/>
+      <c r="J20" s="138"/>
       <c r="K20" s="46">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
       <c r="L20" s="47"/>
     </row>
-    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="94">
+        <v>90</v>
+      </c>
+      <c r="C21" s="141">
         <f>SUM(C12:E20)</f>
         <v>2400000</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="54"/>
-      <c r="G21" s="94">
+      <c r="G21" s="141">
         <f>SUM(G12:H20)</f>
         <v>18560000</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="94">
+      <c r="H21" s="143"/>
+      <c r="I21" s="141">
         <f>SUM(I12:J20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="96"/>
+      <c r="J21" s="143"/>
       <c r="K21" s="55">
         <f>SUM(K12:K20)</f>
         <v>20960000</v>
@@ -5367,12 +5367,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:J8"/>
@@ -5381,44 +5406,19 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:H11"/>
     <mergeCell ref="I9:J11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>#REF!</formula1>
       <formula2>M18</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>#REF!</formula1>
       <formula2>#REF!</formula2>
     </dataValidation>

--- a/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma100521.xlsx
+++ b/Anteproyectos2021/Cronograma&Presupuesto/Actividades&Cronograma100521.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Documentos\Anteproyecto\Uniajc_Tesis_OTFV\Anteproyectos2021\Cronograma&amp;Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristhian A. Torres\Documents\GitHub\Uniajc_Tesis_OTFV\Uniajc_Tesis_OTFV\Anteproyectos2021\Cronograma&amp;Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8E022-5A98-4F29-B0FA-371DA5C62496}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Actividades_Resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
-    <sheet name="Ppto_Actual" sheetId="4" r:id="rId3"/>
-    <sheet name="Ppto_Anterior" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Cronograma_1" sheetId="2" r:id="rId1"/>
+    <sheet name="Actividades_Resultados_1" sheetId="1" r:id="rId2"/>
+    <sheet name="Ppto_Actual_1" sheetId="4" r:id="rId3"/>
+    <sheet name="Actividades_Resultados_2" sheetId="6" r:id="rId4"/>
+    <sheet name="Cronograma_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Ppto_Anterior" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Cronograma!$B$1:$AB$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cronograma_1!$B$1:$AB$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Cronograma_2!$B$1:$AR$73</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
   <si>
     <t>OBJETIVOS</t>
   </si>
@@ -370,11 +372,98 @@
   <si>
     <t>5. Elaboración del documento, presentación y sustentación</t>
   </si>
+  <si>
+    <t>1. Identificación de técnicas de procesamiento de imágenes.</t>
+  </si>
+  <si>
+    <t>●                  Identificar las técnicas de procesamiento de imágenes más comunes para el análisis de información térmica de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>●                  Identificar los tipos de daños o condiciones más frecuentes observados en imágenes termográficas de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>●                  Construir un conjunto de imágenes con los tipos de daños o condiciones más frecuentes observados en imágenes termográficas de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>●                  Implementar un algoritmo basado en técnicas de procesamiento que determine la condición de un panel fotovoltaico a partir del análisis de imágenes termográficas.</t>
+  </si>
+  <si>
+    <t>Documentación de hallazcos encontrados.</t>
+  </si>
+  <si>
+    <t>Tipos tipos de daños o condiciones observados en los paneles solares mediante imágenes termográficas.</t>
+  </si>
+  <si>
+    <t>Investigación de las técnicas de procesamientos aplicadas en la termografía.</t>
+  </si>
+  <si>
+    <t>Implementación el algoritmo base para el procesamiento de imágenes termográficas en Matlab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación de los tipos de daños o condiciones observados en los paneles solares mediante imágenes termográficas. </t>
+  </si>
+  <si>
+    <t>Desarrollo de un listado de los tipos daño y condiciones más frecuentes observados en las imágenes termigrafica de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>Capitulo de Tipos tipos de daños o condiciones observados en los paneles solares mediante imágenes termográficas. Para el documentos de entrega final.</t>
+  </si>
+  <si>
+    <t>Comparación de los resultados obtenidos con el algoritmo de Matlab con el Listado de tipos de daños y condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Relación de las formas u objetos obtenidos en el porcesameinto de imágenes termográficas en Matlab con el listado de tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Listado de tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Definción almacenamiendo de datos en Matlab.</t>
+  </si>
+  <si>
+    <t>Listado de imágenes de los tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Construcción de un conjunto de imágenes con el Listado de tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Técnicas de procesamiento de imágenes más comunes para identificar formas u objetos en imágenes termográficas de paneles fotovoltaicos.</t>
+  </si>
+  <si>
+    <t>Desarrollo de pruebas de las técnicas de procesamiento de imágenes termográficas más comunes con Matlab.</t>
+  </si>
+  <si>
+    <t>Identificación de la técnica de procesamiento de imágenes.</t>
+  </si>
+  <si>
+    <t>Listado de resultados de las técnicas más comunes.</t>
+  </si>
+  <si>
+    <t>Algoritmo de procesamiento de imágenes imágenes termográficas en Matlab.</t>
+  </si>
+  <si>
+    <t>Investigación sobre almacemamiento de información en Matlab para la respectiva construción de conjunto de imágenes.</t>
+  </si>
+  <si>
+    <t>Algoritmo de asociaciáción de imágenes tipificadas con Matlab.</t>
+  </si>
+  <si>
+    <t>Implementación de un algoritmo de asociación entre el conjunto de imagenes y Matlab.</t>
+  </si>
+  <si>
+    <t>Desarrollar pruebas de asociación entre Matlab y el listado de imágenes de los tipos de daños o condiciones más frecuentes.</t>
+  </si>
+  <si>
+    <t>Capitulo de asociación de listado de imágenes; tipos de daños o condiciones más frecuentes con Matla para el documento de entrega final.</t>
+  </si>
+  <si>
+    <t>Capitulo de procesamiento de imágenes para el documento de entrega final.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
@@ -1681,60 +1770,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,59 +1833,38 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1866,44 +1934,65 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2229,336 +2318,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:AB70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61:C61"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65:B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="10"/>
-    <col min="2" max="2" width="67.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" style="10" customWidth="1"/>
-    <col min="5" max="28" width="3.6640625" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="67.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="10" customWidth="1"/>
+    <col min="5" max="28" width="3.7109375" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
+    <row r="1" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-    </row>
-    <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-    </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-    </row>
-    <row r="5" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+    </row>
+    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+    </row>
+    <row r="5" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>39</v>
       </c>
@@ -2639,12 +2511,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+    <row r="7" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -2670,11 +2542,11 @@
       <c r="AA8" s="19"/>
       <c r="AB8" s="20"/>
     </row>
-    <row r="9" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71" t="s">
+    <row r="9" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21"/>
@@ -2702,9 +2574,9 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="22"/>
     </row>
-    <row r="10" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
+    <row r="10" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
       <c r="G10" s="16"/>
@@ -2730,9 +2602,9 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="23"/>
     </row>
-    <row r="11" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="73"/>
+    <row r="11" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="E11" s="24"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -2758,11 +2630,11 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="25"/>
     </row>
-    <row r="12" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+    <row r="12" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="26"/>
@@ -2790,9 +2662,9 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="23"/>
     </row>
-    <row r="13" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="73"/>
+    <row r="13" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="E13" s="26"/>
       <c r="F13" s="16"/>
       <c r="G13" s="33"/>
@@ -2818,9 +2690,9 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="23"/>
     </row>
-    <row r="14" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="73"/>
+    <row r="14" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="E14" s="26"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -2846,11 +2718,11 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="23"/>
     </row>
-    <row r="15" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="71" t="s">
+    <row r="15" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="21"/>
@@ -2878,9 +2750,9 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="22"/>
     </row>
-    <row r="16" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="73"/>
+    <row r="16" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="E16" s="26"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2906,9 +2778,9 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="23"/>
     </row>
-    <row r="17" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="74"/>
-      <c r="C17" s="81"/>
+    <row r="17" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="74"/>
       <c r="E17" s="24"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2934,7 +2806,7 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="E18" s="26"/>
@@ -2962,11 +2834,11 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="23"/>
     </row>
-    <row r="19" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+    <row r="19" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="80"/>
       <c r="E19" s="36"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -2992,11 +2864,11 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="23"/>
     </row>
-    <row r="20" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71" t="s">
+    <row r="20" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="21"/>
@@ -3024,9 +2896,9 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="22"/>
     </row>
-    <row r="21" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
-      <c r="C21" s="73"/>
+    <row r="21" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -3052,9 +2924,9 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="23"/>
     </row>
-    <row r="22" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
-      <c r="C22" s="73"/>
+    <row r="22" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
       <c r="E22" s="24"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -3080,11 +2952,11 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="25"/>
     </row>
-    <row r="23" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71" t="s">
+    <row r="23" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="21"/>
@@ -3112,9 +2984,9 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="22"/>
     </row>
-    <row r="24" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="71"/>
-      <c r="C24" s="73"/>
+    <row r="24" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
       <c r="E24" s="26"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3140,9 +3012,9 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="23"/>
     </row>
-    <row r="25" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
-      <c r="C25" s="73"/>
+    <row r="25" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="E25" s="24"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -3168,11 +3040,11 @@
       <c r="AA25" s="18"/>
       <c r="AB25" s="25"/>
     </row>
-    <row r="26" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="71" t="s">
+    <row r="26" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="21"/>
@@ -3200,9 +3072,9 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="22"/>
     </row>
-    <row r="27" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="73"/>
+    <row r="27" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="E27" s="26"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -3228,9 +3100,9 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="23"/>
     </row>
-    <row r="28" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="74"/>
-      <c r="C28" s="81"/>
+    <row r="28" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="72"/>
+      <c r="C28" s="74"/>
       <c r="E28" s="24"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3256,7 +3128,7 @@
       <c r="AA28" s="18"/>
       <c r="AB28" s="25"/>
     </row>
-    <row r="29" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="E29" s="26"/>
@@ -3284,11 +3156,11 @@
       <c r="AA29" s="16"/>
       <c r="AB29" s="23"/>
     </row>
-    <row r="30" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="77" t="s">
+    <row r="30" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="80"/>
       <c r="E30" s="26"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -3314,11 +3186,11 @@
       <c r="AA30" s="16"/>
       <c r="AB30" s="23"/>
     </row>
-    <row r="31" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71" t="s">
+    <row r="31" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21"/>
@@ -3346,9 +3218,9 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="22"/>
     </row>
-    <row r="32" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71"/>
-      <c r="C32" s="73"/>
+    <row r="32" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
       <c r="E32" s="26"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -3374,9 +3246,9 @@
       <c r="AA32" s="16"/>
       <c r="AB32" s="23"/>
     </row>
-    <row r="33" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="73"/>
+    <row r="33" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
       <c r="E33" s="24"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -3402,11 +3274,11 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="25"/>
     </row>
-    <row r="34" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71" t="s">
+    <row r="34" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="26"/>
@@ -3434,9 +3306,9 @@
       <c r="AA34" s="16"/>
       <c r="AB34" s="23"/>
     </row>
-    <row r="35" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="71"/>
-      <c r="C35" s="73"/>
+    <row r="35" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
       <c r="E35" s="26"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3462,9 +3334,9 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="23"/>
     </row>
-    <row r="36" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="71"/>
-      <c r="C36" s="73"/>
+    <row r="36" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
       <c r="E36" s="26"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3490,11 +3362,11 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="23"/>
     </row>
-    <row r="37" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="71" t="s">
+    <row r="37" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="21"/>
@@ -3522,9 +3394,9 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="22"/>
     </row>
-    <row r="38" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71"/>
-      <c r="C38" s="73"/>
+    <row r="38" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
       <c r="E38" s="26"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3550,9 +3422,9 @@
       <c r="AA38" s="16"/>
       <c r="AB38" s="23"/>
     </row>
-    <row r="39" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="82"/>
-      <c r="C39" s="79"/>
+    <row r="39" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
       <c r="E39" s="24"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -3578,11 +3450,11 @@
       <c r="AA39" s="18"/>
       <c r="AB39" s="25"/>
     </row>
-    <row r="40" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="70" t="s">
+    <row r="40" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="21"/>
@@ -3610,9 +3482,9 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="22"/>
     </row>
-    <row r="41" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="71"/>
-      <c r="C41" s="73"/>
+    <row r="41" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
       <c r="E41" s="26"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -3638,9 +3510,9 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="23"/>
     </row>
-    <row r="42" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="74"/>
-      <c r="C42" s="81"/>
+    <row r="42" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="72"/>
+      <c r="C42" s="74"/>
       <c r="E42" s="24"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -3666,7 +3538,7 @@
       <c r="AA42" s="18"/>
       <c r="AB42" s="25"/>
     </row>
-    <row r="43" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:28" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="E43" s="26"/>
@@ -3694,11 +3566,11 @@
       <c r="AA43" s="16"/>
       <c r="AB43" s="23"/>
     </row>
-    <row r="44" spans="2:28" s="12" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="77" t="s">
+    <row r="44" spans="2:28" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="78"/>
+      <c r="C44" s="80"/>
       <c r="E44" s="26"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -3724,11 +3596,11 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="23"/>
     </row>
-    <row r="45" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="71" t="s">
+    <row r="45" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="21"/>
@@ -3756,9 +3628,9 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="22"/>
     </row>
-    <row r="46" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="71"/>
-      <c r="C46" s="73"/>
+    <row r="46" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="E46" s="26"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -3784,9 +3656,9 @@
       <c r="AA46" s="16"/>
       <c r="AB46" s="23"/>
     </row>
-    <row r="47" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="71"/>
-      <c r="C47" s="73"/>
+    <row r="47" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
       <c r="E47" s="24"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -3812,11 +3684,11 @@
       <c r="AA47" s="18"/>
       <c r="AB47" s="25"/>
     </row>
-    <row r="48" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="71" t="s">
+    <row r="48" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="21"/>
@@ -3844,9 +3716,9 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="22"/>
     </row>
-    <row r="49" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="71"/>
-      <c r="C49" s="73"/>
+    <row r="49" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
       <c r="E49" s="26"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -3872,9 +3744,9 @@
       <c r="AA49" s="16"/>
       <c r="AB49" s="23"/>
     </row>
-    <row r="50" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="71"/>
-      <c r="C50" s="73"/>
+    <row r="50" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
       <c r="E50" s="24"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -3900,11 +3772,11 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="25"/>
     </row>
-    <row r="51" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="71" t="s">
+    <row r="51" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="21"/>
@@ -3932,9 +3804,9 @@
       <c r="AA51" s="17"/>
       <c r="AB51" s="22"/>
     </row>
-    <row r="52" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="71"/>
-      <c r="C52" s="73"/>
+    <row r="52" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
       <c r="E52" s="26"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -3960,9 +3832,9 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="23"/>
     </row>
-    <row r="53" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="79"/>
+    <row r="53" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
       <c r="E53" s="24"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -3988,11 +3860,11 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="25"/>
     </row>
-    <row r="54" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="83" t="s">
+    <row r="54" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="21"/>
@@ -4020,9 +3892,9 @@
       <c r="AA54" s="17"/>
       <c r="AB54" s="22"/>
     </row>
-    <row r="55" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="71"/>
-      <c r="C55" s="73"/>
+    <row r="55" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
       <c r="E55" s="26"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -4048,9 +3920,9 @@
       <c r="AA55" s="16"/>
       <c r="AB55" s="23"/>
     </row>
-    <row r="56" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="82"/>
-      <c r="C56" s="79"/>
+    <row r="56" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
       <c r="E56" s="24"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -4076,11 +3948,11 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="25"/>
     </row>
-    <row r="57" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="70" t="s">
+    <row r="57" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="21"/>
@@ -4108,9 +3980,9 @@
       <c r="AA57" s="17"/>
       <c r="AB57" s="22"/>
     </row>
-    <row r="58" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="71"/>
-      <c r="C58" s="73"/>
+    <row r="58" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
       <c r="E58" s="26"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -4136,9 +4008,9 @@
       <c r="AA58" s="16"/>
       <c r="AB58" s="23"/>
     </row>
-    <row r="59" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="74"/>
-      <c r="C59" s="81"/>
+    <row r="59" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="72"/>
+      <c r="C59" s="74"/>
       <c r="E59" s="24"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -4164,7 +4036,7 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="25"/>
     </row>
-    <row r="60" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="26"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -4190,11 +4062,11 @@
       <c r="AA60" s="16"/>
       <c r="AB60" s="23"/>
     </row>
-    <row r="61" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="68" t="s">
+    <row r="61" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="69"/>
+      <c r="C61" s="85"/>
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -4220,11 +4092,11 @@
       <c r="AA61" s="38"/>
       <c r="AB61" s="39"/>
     </row>
-    <row r="62" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="70" t="s">
+    <row r="62" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="26"/>
@@ -4252,9 +4124,9 @@
       <c r="AA62" s="16"/>
       <c r="AB62" s="23"/>
     </row>
-    <row r="63" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="71"/>
-      <c r="C63" s="73"/>
+    <row r="63" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -4280,9 +4152,9 @@
       <c r="AA63" s="33"/>
       <c r="AB63" s="34"/>
     </row>
-    <row r="64" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="71"/>
-      <c r="C64" s="73"/>
+    <row r="64" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="68"/>
+      <c r="C64" s="69"/>
       <c r="E64" s="26"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -4308,11 +4180,11 @@
       <c r="AA64" s="16"/>
       <c r="AB64" s="23"/>
     </row>
-    <row r="65" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="71" t="s">
+    <row r="65" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E65" s="21"/>
@@ -4340,9 +4212,9 @@
       <c r="AA65" s="17"/>
       <c r="AB65" s="22"/>
     </row>
-    <row r="66" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="71"/>
-      <c r="C66" s="73"/>
+    <row r="66" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="68"/>
+      <c r="C66" s="69"/>
       <c r="E66" s="26"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -4368,9 +4240,9 @@
       <c r="AA66" s="33"/>
       <c r="AB66" s="34"/>
     </row>
-    <row r="67" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="71"/>
-      <c r="C67" s="73"/>
+    <row r="67" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
       <c r="E67" s="24"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -4396,11 +4268,11 @@
       <c r="AA67" s="18"/>
       <c r="AB67" s="25"/>
     </row>
-    <row r="68" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="71" t="s">
+    <row r="68" spans="2:28" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="77" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="26"/>
@@ -4428,9 +4300,9 @@
       <c r="AA68" s="16"/>
       <c r="AB68" s="23"/>
     </row>
-    <row r="69" spans="2:28" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="71"/>
-      <c r="C69" s="75"/>
+    <row r="69" spans="2:28" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="68"/>
+      <c r="C69" s="77"/>
       <c r="E69" s="26"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -4456,9 +4328,9 @@
       <c r="AA69" s="16"/>
       <c r="AB69" s="23"/>
     </row>
-    <row r="70" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="74"/>
-      <c r="C70" s="76"/>
+    <row r="70" spans="2:28" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="72"/>
+      <c r="C70" s="78"/>
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
@@ -4486,6 +4358,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B2:AB4"/>
@@ -4502,32 +4400,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -4535,32 +4407,258 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:L4"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
-    <col min="3" max="3" width="0.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="0.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="0.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
-    <col min="9" max="9" width="0.88671875" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="0.88671875" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="24" width="11.44140625" style="57"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="24" width="11.42578125" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
         <v>68</v>
       </c>
@@ -4587,7 +4685,7 @@
       <c r="W2" s="56"/>
       <c r="X2" s="56"/>
     </row>
-    <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -4612,7 +4710,7 @@
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
     </row>
-    <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -4637,8 +4735,8 @@
       <c r="W4" s="56"/>
       <c r="X4" s="56"/>
     </row>
-    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>91</v>
       </c>
@@ -4658,8 +4756,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="66" t="s">
         <v>76</v>
       </c>
@@ -4684,7 +4782,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>78</v>
       </c>
@@ -4709,7 +4807,7 @@
         <v>2560000</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
         <v>80</v>
       </c>
@@ -4734,7 +4832,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>82</v>
       </c>
@@ -4759,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="66" t="s">
         <v>84</v>
       </c>
@@ -4784,7 +4882,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="66" t="s">
         <v>86</v>
       </c>
@@ -4807,7 +4905,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="66" t="s">
         <v>87</v>
       </c>
@@ -4830,7 +4928,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="66" t="s">
         <v>88</v>
       </c>
@@ -4853,7 +4951,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="66" t="s">
         <v>89</v>
       </c>
@@ -4876,7 +4974,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="59"/>
       <c r="D17" s="59"/>
       <c r="F17" s="63"/>
@@ -4887,7 +4985,7 @@
       <c r="K17" s="61"/>
       <c r="L17" s="63"/>
     </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="86" t="s">
         <v>90</v>
       </c>
@@ -4913,20 +5011,20 @@
         <v>21660000</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B18:D18"/>
@@ -4937,429 +5035,4028 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:AR73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="67.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="10" customWidth="1"/>
+    <col min="5" max="44" width="3.7109375" style="11" customWidth="1"/>
+    <col min="45" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+    </row>
+    <row r="3" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+    </row>
+    <row r="4" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+    </row>
+    <row r="5" spans="2:44" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:44" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>2</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3</v>
+      </c>
+      <c r="H6" s="42">
+        <v>4</v>
+      </c>
+      <c r="I6" s="42">
+        <v>5</v>
+      </c>
+      <c r="J6" s="42">
+        <v>6</v>
+      </c>
+      <c r="K6" s="42">
+        <v>7</v>
+      </c>
+      <c r="L6" s="42">
+        <v>8</v>
+      </c>
+      <c r="M6" s="42">
+        <v>9</v>
+      </c>
+      <c r="N6" s="42">
+        <v>10</v>
+      </c>
+      <c r="O6" s="42">
+        <v>11</v>
+      </c>
+      <c r="P6" s="42">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>13</v>
+      </c>
+      <c r="R6" s="42">
+        <v>14</v>
+      </c>
+      <c r="S6" s="42">
+        <v>15</v>
+      </c>
+      <c r="T6" s="42">
+        <v>16</v>
+      </c>
+      <c r="U6" s="42">
+        <v>17</v>
+      </c>
+      <c r="V6" s="42">
+        <v>18</v>
+      </c>
+      <c r="W6" s="42">
+        <v>19</v>
+      </c>
+      <c r="X6" s="42">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="42">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="42">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="42">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="42">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="42">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="42">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="42">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="42">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="42">
+        <v>32</v>
+      </c>
+      <c r="AK6" s="42">
+        <v>33</v>
+      </c>
+      <c r="AL6" s="42">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="42">
+        <v>35</v>
+      </c>
+      <c r="AN6" s="42">
+        <v>36</v>
+      </c>
+      <c r="AO6" s="42">
+        <v>37</v>
+      </c>
+      <c r="AP6" s="42">
+        <v>38</v>
+      </c>
+      <c r="AQ6" s="42">
+        <v>39</v>
+      </c>
+      <c r="AR6" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="20"/>
+    </row>
+    <row r="9" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="22"/>
+    </row>
+    <row r="10" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="23"/>
+    </row>
+    <row r="11" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="25"/>
+    </row>
+    <row r="12" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="23"/>
+    </row>
+    <row r="13" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="23"/>
+    </row>
+    <row r="14" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="23"/>
+    </row>
+    <row r="15" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="22"/>
+    </row>
+    <row r="16" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="23"/>
+    </row>
+    <row r="17" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="74"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="25"/>
+    </row>
+    <row r="18" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="22"/>
+    </row>
+    <row r="19" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="23"/>
+    </row>
+    <row r="20" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="74"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="25"/>
+    </row>
+    <row r="21" spans="2:44" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="23"/>
+    </row>
+    <row r="22" spans="2:44" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="23"/>
+    </row>
+    <row r="23" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="22"/>
+    </row>
+    <row r="24" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="23"/>
+    </row>
+    <row r="25" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="25"/>
+    </row>
+    <row r="26" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="22"/>
+    </row>
+    <row r="27" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="23"/>
+    </row>
+    <row r="28" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="25"/>
+    </row>
+    <row r="29" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="22"/>
+    </row>
+    <row r="30" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="68"/>
+      <c r="C30" s="69"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="23"/>
+    </row>
+    <row r="31" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="72"/>
+      <c r="C31" s="74"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="25"/>
+    </row>
+    <row r="32" spans="2:44" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="23"/>
+    </row>
+    <row r="33" spans="2:44" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="23"/>
+    </row>
+    <row r="34" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="22"/>
+    </row>
+    <row r="35" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="23"/>
+    </row>
+    <row r="36" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="25"/>
+    </row>
+    <row r="37" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="23"/>
+    </row>
+    <row r="38" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="23"/>
+    </row>
+    <row r="39" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="23"/>
+    </row>
+    <row r="40" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="22"/>
+    </row>
+    <row r="41" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="23"/>
+    </row>
+    <row r="42" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="25"/>
+    </row>
+    <row r="43" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="22"/>
+    </row>
+    <row r="44" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="16"/>
+      <c r="AQ44" s="16"/>
+      <c r="AR44" s="23"/>
+    </row>
+    <row r="45" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="72"/>
+      <c r="C45" s="74"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="25"/>
+    </row>
+    <row r="46" spans="2:44" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16"/>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="23"/>
+    </row>
+    <row r="47" spans="2:44" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="16"/>
+      <c r="AQ47" s="16"/>
+      <c r="AR47" s="23"/>
+    </row>
+    <row r="48" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="22"/>
+    </row>
+    <row r="49" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="23"/>
+    </row>
+    <row r="50" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="25"/>
+    </row>
+    <row r="51" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17"/>
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="22"/>
+    </row>
+    <row r="52" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="16"/>
+      <c r="AN52" s="16"/>
+      <c r="AO52" s="16"/>
+      <c r="AP52" s="16"/>
+      <c r="AQ52" s="16"/>
+      <c r="AR52" s="23"/>
+    </row>
+    <row r="53" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="25"/>
+    </row>
+    <row r="54" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+      <c r="AP54" s="17"/>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="22"/>
+    </row>
+    <row r="55" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="33"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="23"/>
+    </row>
+    <row r="56" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="25"/>
+    </row>
+    <row r="57" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="17"/>
+      <c r="AQ57" s="17"/>
+      <c r="AR57" s="22"/>
+    </row>
+    <row r="58" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="16"/>
+      <c r="AJ58" s="16"/>
+      <c r="AK58" s="16"/>
+      <c r="AL58" s="16"/>
+      <c r="AM58" s="16"/>
+      <c r="AN58" s="16"/>
+      <c r="AO58" s="16"/>
+      <c r="AP58" s="16"/>
+      <c r="AQ58" s="16"/>
+      <c r="AR58" s="23"/>
+    </row>
+    <row r="59" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="25"/>
+    </row>
+    <row r="60" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="17"/>
+      <c r="AP60" s="17"/>
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="22"/>
+    </row>
+    <row r="61" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="33"/>
+      <c r="AP61" s="16"/>
+      <c r="AQ61" s="16"/>
+      <c r="AR61" s="23"/>
+    </row>
+    <row r="62" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="72"/>
+      <c r="C62" s="74"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="18"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AK62" s="18"/>
+      <c r="AL62" s="18"/>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="18"/>
+      <c r="AQ62" s="18"/>
+      <c r="AR62" s="25"/>
+    </row>
+    <row r="63" spans="2:44" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="26"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="16"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="16"/>
+      <c r="AO63" s="16"/>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="16"/>
+      <c r="AR63" s="23"/>
+    </row>
+    <row r="64" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="18"/>
+      <c r="AB64" s="18"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="38"/>
+      <c r="AL64" s="38"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="38"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="39"/>
+    </row>
+    <row r="65" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="26"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+      <c r="AI65" s="16"/>
+      <c r="AJ65" s="16"/>
+      <c r="AK65" s="16"/>
+      <c r="AL65" s="16"/>
+      <c r="AM65" s="16"/>
+      <c r="AN65" s="16"/>
+      <c r="AO65" s="16"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="16"/>
+      <c r="AR65" s="23"/>
+    </row>
+    <row r="66" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="68"/>
+      <c r="C66" s="69"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="33"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="33"/>
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33"/>
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="16"/>
+      <c r="AO66" s="16"/>
+      <c r="AP66" s="33"/>
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="34"/>
+    </row>
+    <row r="67" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="16"/>
+      <c r="AH67" s="16"/>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="16"/>
+      <c r="AK67" s="16"/>
+      <c r="AL67" s="16"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
+      <c r="AO67" s="16"/>
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16"/>
+      <c r="AR67" s="23"/>
+    </row>
+    <row r="68" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="17"/>
+      <c r="AM68" s="17"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="17"/>
+      <c r="AQ68" s="17"/>
+      <c r="AR68" s="22"/>
+    </row>
+    <row r="69" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="16"/>
+      <c r="AI69" s="16"/>
+      <c r="AJ69" s="16"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="16"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="16"/>
+      <c r="AO69" s="16"/>
+      <c r="AP69" s="33"/>
+      <c r="AQ69" s="33"/>
+      <c r="AR69" s="34"/>
+    </row>
+    <row r="70" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18"/>
+      <c r="AQ70" s="18"/>
+      <c r="AR70" s="25"/>
+    </row>
+    <row r="71" spans="2:44" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="23"/>
+    </row>
+    <row r="72" spans="2:44" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="68"/>
+      <c r="C72" s="77"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="23"/>
+    </row>
+    <row r="73" spans="2:44" ht="18" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="72"/>
+      <c r="C73" s="78"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
+      <c r="AI73" s="28"/>
+      <c r="AJ73" s="28"/>
+      <c r="AK73" s="28"/>
+      <c r="AL73" s="28"/>
+      <c r="AM73" s="28"/>
+      <c r="AN73" s="28"/>
+      <c r="AO73" s="28"/>
+      <c r="AP73" s="28"/>
+      <c r="AQ73" s="28"/>
+      <c r="AR73" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:AR4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="30.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="92"/>
-      <c r="C2" s="95" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="129"/>
+      <c r="C2" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="93"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="102"/>
-    </row>
-    <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="94"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="138"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="130"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="139"/>
+    </row>
+    <row r="4" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="131"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
       <c r="K4" s="43">
         <v>43753</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="89" t="s">
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="141"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="143"/>
+    </row>
+    <row r="6" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-    </row>
-    <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="110" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
-      <c r="C9" s="115" t="s">
+    <row r="9" spans="2:19" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="103"/>
+      <c r="C9" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="124" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="127" t="s">
+      <c r="G9" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="127" t="s">
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="133"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="110"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="133"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="110"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="133"/>
-    </row>
-    <row r="12" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="J9" s="121"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="99"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="103"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="99"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="103"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="99"/>
+    </row>
+    <row r="12" spans="2:19" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="89">
         <v>1400000</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="89">
         <f>+J31</f>
         <v>0</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="134">
+      <c r="H12" s="91"/>
+      <c r="I12" s="89">
         <v>0</v>
       </c>
-      <c r="J12" s="136"/>
+      <c r="J12" s="91"/>
       <c r="K12" s="46">
         <f>SUM(C12:J12)</f>
         <v>1400000</v>
       </c>
       <c r="L12" s="47"/>
     </row>
-    <row r="13" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="89">
         <f>+I41</f>
         <v>0</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="89">
         <v>2560000</v>
       </c>
-      <c r="H13" s="136"/>
-      <c r="I13" s="137">
+      <c r="H13" s="91"/>
+      <c r="I13" s="92">
         <v>0</v>
       </c>
-      <c r="J13" s="138"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="46">
         <f>SUM(C13:J13)</f>
         <v>2560000</v>
       </c>
       <c r="L13" s="47"/>
     </row>
-    <row r="14" spans="2:19" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="66" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="89">
         <v>0</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="89">
         <v>13600000</v>
       </c>
-      <c r="H14" s="136"/>
-      <c r="I14" s="134">
+      <c r="H14" s="91"/>
+      <c r="I14" s="89">
         <v>0</v>
       </c>
-      <c r="J14" s="136"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="46">
         <f t="shared" ref="K14:K20" si="0">SUM(C14:J14)</f>
         <v>13600000</v>
       </c>
       <c r="L14" s="47"/>
     </row>
-    <row r="15" spans="2:19" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="66" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="89">
         <f>+I50</f>
         <v>0</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="136"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="89">
         <v>0</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="134">
+      <c r="H15" s="91"/>
+      <c r="I15" s="89">
         <v>0</v>
       </c>
-      <c r="J15" s="136"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15" s="47"/>
     </row>
-    <row r="16" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="66" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="89">
         <f>+I59</f>
         <v>0</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="89">
         <v>700000</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137">
+      <c r="H16" s="91"/>
+      <c r="I16" s="92">
         <v>0</v>
       </c>
-      <c r="J16" s="138"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="46">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
       <c r="L16" s="47"/>
     </row>
-    <row r="17" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="89">
         <f>+I68</f>
         <v>0</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="50"/>
-      <c r="G17" s="134">
+      <c r="G17" s="89">
         <v>500000</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137">
+      <c r="H17" s="91"/>
+      <c r="I17" s="92">
         <v>0</v>
       </c>
-      <c r="J17" s="138"/>
+      <c r="J17" s="93"/>
       <c r="K17" s="46">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="89">
         <v>0</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="134">
+      <c r="G18" s="89">
         <v>400000</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137">
+      <c r="H18" s="91"/>
+      <c r="I18" s="92">
         <v>0</v>
       </c>
-      <c r="J18" s="138"/>
+      <c r="J18" s="93"/>
       <c r="K18" s="46">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
       <c r="L18" s="47"/>
     </row>
-    <row r="19" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="89">
         <v>0</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="137">
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="92">
         <v>0</v>
       </c>
-      <c r="J19" s="138"/>
+      <c r="J19" s="93"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
     </row>
-    <row r="20" spans="2:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="89">
         <v>1000000</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="134">
+      <c r="G20" s="89">
         <v>800000</v>
       </c>
-      <c r="H20" s="136"/>
-      <c r="I20" s="137">
+      <c r="H20" s="91"/>
+      <c r="I20" s="92">
         <v>0</v>
       </c>
-      <c r="J20" s="138"/>
+      <c r="J20" s="93"/>
       <c r="K20" s="46">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
       <c r="L20" s="47"/>
     </row>
-    <row r="21" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C21" s="94">
         <f>SUM(C12:E20)</f>
         <v>2400000</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="54"/>
-      <c r="G21" s="141">
+      <c r="G21" s="94">
         <f>SUM(G12:H20)</f>
         <v>18560000</v>
       </c>
-      <c r="H21" s="143"/>
-      <c r="I21" s="141">
+      <c r="H21" s="96"/>
+      <c r="I21" s="94">
         <f>SUM(I12:J20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="143"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="55">
         <f>SUM(K12:K20)</f>
         <v>20960000</v>
@@ -5367,37 +9064,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:J4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:J8"/>
@@ -5406,19 +9078,44 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:H11"/>
     <mergeCell ref="I9:J11"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:J4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">
       <formula1>#REF!</formula1>
       <formula2>M18</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21">
       <formula1>#REF!</formula1>
       <formula2>#REF!</formula2>
     </dataValidation>
